--- a/MWS/Application/DelivaryCenterPrintNouhin/Doc/納品書パラメタファイル定義.xlsx
+++ b/MWS/Application/DelivaryCenterPrintNouhin/Doc/納品書パラメタファイル定義.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SourceTree\MWS\Application\DelivaryCenterPrintNouhin\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4E0B154-78D5-453C-B3D6-14336BD96EB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{970EBB8E-89C4-4923-9E1C-4AF3A5A65E5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1285,7 +1285,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1313,20 +1313,19 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Meiryo UI"/>
-      <family val="3"/>
-      <charset val="128"/>
-    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1343,7 +1342,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1359,7 +1358,16 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="49" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1676,20 +1684,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66922434-7859-457B-9A79-9EA6D2C0E2D1}">
-  <dimension ref="A1:L258"/>
+  <dimension ref="A1:L266"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A256" workbookViewId="0">
-      <selection activeCell="K271" sqref="K271"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="2.875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="37.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="29.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="3.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="6.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="4.125" style="1" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="4.375" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.625" style="1" bestFit="1" customWidth="1"/>
@@ -3814,7 +3822,7 @@
       <c r="B85" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="K85" s="1" t="str">
+      <c r="K85" s="5" t="str">
         <f>A85 &amp; B85</f>
         <v>;オーバーレイ用</v>
       </c>
@@ -3841,7 +3849,7 @@
       <c r="H86" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K86" s="3" t="str">
+      <c r="K86" s="6" t="str">
         <f t="shared" ref="K86:K105" si="4">A86 &amp; B86 &amp; C86 &amp; D86 &amp; "," &amp; E86 &amp; "," &amp; F86 &amp; "," &amp; G86 &amp; "," &amp; H86 &amp; "," &amp; I86 &amp; "," &amp; J86</f>
         <v>お客様コードNo=120,65,240,40,FR,,</v>
       </c>
@@ -3869,7 +3877,7 @@
         <v>116</v>
       </c>
       <c r="J87" s="4"/>
-      <c r="K87" s="3" t="str">
+      <c r="K87" s="6" t="str">
         <f t="shared" si="4"/>
         <v>受注顧客No=610,65,205,40,FR,,</v>
       </c>
@@ -3897,7 +3905,7 @@
         <v>121</v>
       </c>
       <c r="J88" s="4"/>
-      <c r="K88" s="3" t="str">
+      <c r="K88" s="6" t="str">
         <f t="shared" si="4"/>
         <v>納 品 書（控）=1140,25,450,75,F,,</v>
       </c>
@@ -3925,7 +3933,7 @@
         <v>117</v>
       </c>
       <c r="J89" s="4"/>
-      <c r="K89" s="3" t="str">
+      <c r="K89" s="6" t="str">
         <f t="shared" si="4"/>
         <v>No=1715,65,80,40,F,,</v>
       </c>
@@ -3953,7 +3961,7 @@
         <v>117</v>
       </c>
       <c r="J90" s="4"/>
-      <c r="K90" s="3" t="str">
+      <c r="K90" s="6" t="str">
         <f t="shared" si="4"/>
         <v>年=1220,150,50,40,F,,</v>
       </c>
@@ -3981,7 +3989,7 @@
         <v>117</v>
       </c>
       <c r="J91" s="4"/>
-      <c r="K91" s="3" t="str">
+      <c r="K91" s="6" t="str">
         <f t="shared" si="4"/>
         <v>月=1330,150,50,40,F,,</v>
       </c>
@@ -4006,7 +4014,7 @@
         <v>22</v>
       </c>
       <c r="J92" s="4"/>
-      <c r="K92" s="3" t="str">
+      <c r="K92" s="6" t="str">
         <f t="shared" si="4"/>
         <v>日=1440,150,50,40,,,</v>
       </c>
@@ -4030,7 +4038,7 @@
       <c r="G93" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="K93" s="3" t="str">
+      <c r="K93" s="6" t="str">
         <f t="shared" si="4"/>
         <v>&lt;MICロゴ黒&gt;=1395,217,375,133,,,</v>
       </c>
@@ -4059,7 +4067,7 @@
         <v>117</v>
       </c>
       <c r="J94" s="4"/>
-      <c r="K94" s="3" t="str">
+      <c r="K94" s="6" t="str">
         <f t="shared" si="4"/>
         <v>株式会社ミック=1425,348,420,40,F,,</v>
       </c>
@@ -4087,7 +4095,7 @@
         <v>116</v>
       </c>
       <c r="J95" s="4"/>
-      <c r="K95" s="3" t="str">
+      <c r="K95" s="6" t="str">
         <f t="shared" si="4"/>
         <v>〒277-0871=1425,388,120,30,FR,,</v>
       </c>
@@ -4115,7 +4123,7 @@
         <v>117</v>
       </c>
       <c r="J96" s="4"/>
-      <c r="K96" s="3" t="str">
+      <c r="K96" s="6" t="str">
         <f t="shared" si="4"/>
         <v>千葉県柏市若紫226番地44 中央141街区1=1545,388,395,30,F,,</v>
       </c>
@@ -4143,7 +4151,7 @@
         <v>116</v>
       </c>
       <c r="J97" s="4"/>
-      <c r="K97" s="3" t="str">
+      <c r="K97" s="6" t="str">
         <f t="shared" si="4"/>
         <v>KOIL TERARCE 5F=1545,418,395,30,FR,,</v>
       </c>
@@ -4171,7 +4179,7 @@
         <v>117</v>
       </c>
       <c r="J98" s="4"/>
-      <c r="K98" s="3" t="str">
+      <c r="K98" s="6" t="str">
         <f t="shared" si="4"/>
         <v>担当：=1295,485,105,40,F,,</v>
       </c>
@@ -4199,7 +4207,7 @@
         <v>116</v>
       </c>
       <c r="J99" s="4"/>
-      <c r="K99" s="3" t="str">
+      <c r="K99" s="6" t="str">
         <f t="shared" si="4"/>
         <v>下記の通り納品致しましたのでご査収ください。=1345,525,595,40,FR,,</v>
       </c>
@@ -4214,7 +4222,7 @@
       <c r="D100" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E100" s="5" t="s">
+      <c r="E100" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F100" s="1" t="s">
@@ -4226,7 +4234,7 @@
       <c r="H100" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K100" s="3" t="str">
+      <c r="K100" s="6" t="str">
         <f t="shared" si="4"/>
         <v>品   番  ・  品   名=120,570,755,55,C,,</v>
       </c>
@@ -4241,7 +4249,7 @@
       <c r="D101" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E101" s="5" t="s">
+      <c r="E101" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F101" s="1" t="s">
@@ -4253,7 +4261,7 @@
       <c r="H101" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K101" s="3" t="str">
+      <c r="K101" s="6" t="str">
         <f t="shared" si="4"/>
         <v>数   量=875,570,210,55,C,,</v>
       </c>
@@ -4268,7 +4276,7 @@
       <c r="D102" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E102" s="5" t="s">
+      <c r="E102" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F102" s="1" t="s">
@@ -4280,7 +4288,7 @@
       <c r="H102" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K102" s="3" t="str">
+      <c r="K102" s="6" t="str">
         <f t="shared" si="4"/>
         <v>単 位=1085,570,110,55,C,,</v>
       </c>
@@ -4295,7 +4303,7 @@
       <c r="D103" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E103" s="5" t="s">
+      <c r="E103" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F103" s="1" t="s">
@@ -4307,7 +4315,7 @@
       <c r="H103" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K103" s="3" t="str">
+      <c r="K103" s="6" t="str">
         <f t="shared" si="4"/>
         <v>単    価=1195,570,250,55,C,,</v>
       </c>
@@ -4322,7 +4330,7 @@
       <c r="D104" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E104" s="5" t="s">
+      <c r="E104" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F104" s="1" t="s">
@@ -4334,7 +4342,7 @@
       <c r="H104" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K104" s="3" t="str">
+      <c r="K104" s="6" t="str">
         <f t="shared" si="4"/>
         <v>金    額=1445,570,250,55,C,,</v>
       </c>
@@ -4349,7 +4357,7 @@
       <c r="D105" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E105" s="5" t="s">
+      <c r="E105" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F105" s="1" t="s">
@@ -4361,7 +4369,7 @@
       <c r="H105" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K105" s="3" t="str">
+      <c r="K105" s="6" t="str">
         <f t="shared" si="4"/>
         <v>備    考=1695,570,245,55,C,,</v>
       </c>
@@ -4376,7 +4384,7 @@
       <c r="D106" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E106" s="5" t="s">
+      <c r="E106" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F106" s="1" t="s">
@@ -4388,7 +4396,7 @@
       <c r="H106" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="K106" s="3" t="str">
+      <c r="K106" s="6" t="str">
         <f t="shared" ref="K106:K132" si="5">A106 &amp; B106 &amp; C106 &amp; D106 &amp; "," &amp; E106 &amp; "," &amp; F106 &amp; "," &amp; G106 &amp; "," &amp; H106 &amp; "," &amp; I106 &amp; "," &amp; J106</f>
         <v>%FRAME%=120,570,1820,685,6,,</v>
       </c>
@@ -4403,7 +4411,7 @@
       <c r="D107" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E107" s="5" t="s">
+      <c r="E107" s="1" t="s">
         <v>210</v>
       </c>
       <c r="F107" s="1" t="s">
@@ -4412,7 +4420,7 @@
       <c r="G107" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K107" s="3" t="str">
+      <c r="K107" s="6" t="str">
         <f t="shared" si="5"/>
         <v>%LINE%=120,625,1820,0,,,</v>
       </c>
@@ -4427,7 +4435,7 @@
       <c r="D108" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E108" s="5" t="s">
+      <c r="E108" s="1" t="s">
         <v>211</v>
       </c>
       <c r="F108" s="1" t="s">
@@ -4436,7 +4444,7 @@
       <c r="G108" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K108" s="3" t="str">
+      <c r="K108" s="6" t="str">
         <f t="shared" si="5"/>
         <v>%LINE%=120,688,1820,0,,,</v>
       </c>
@@ -4451,7 +4459,7 @@
       <c r="D109" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E109" s="5" t="s">
+      <c r="E109" s="1" t="s">
         <v>212</v>
       </c>
       <c r="F109" s="1" t="s">
@@ -4460,7 +4468,7 @@
       <c r="G109" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K109" s="3" t="str">
+      <c r="K109" s="6" t="str">
         <f t="shared" si="5"/>
         <v>%LINE%=120,751,1820,0,,,</v>
       </c>
@@ -4475,7 +4483,7 @@
       <c r="D110" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E110" s="5" t="s">
+      <c r="E110" s="1" t="s">
         <v>213</v>
       </c>
       <c r="F110" s="1" t="s">
@@ -4484,7 +4492,7 @@
       <c r="G110" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K110" s="3" t="str">
+      <c r="K110" s="6" t="str">
         <f t="shared" si="5"/>
         <v>%LINE%=120,814,1820,0,,,</v>
       </c>
@@ -4499,7 +4507,7 @@
       <c r="D111" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E111" s="5" t="s">
+      <c r="E111" s="1" t="s">
         <v>214</v>
       </c>
       <c r="F111" s="1" t="s">
@@ -4508,7 +4516,7 @@
       <c r="G111" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K111" s="3" t="str">
+      <c r="K111" s="6" t="str">
         <f t="shared" si="5"/>
         <v>%LINE%=120,877,1820,0,,,</v>
       </c>
@@ -4523,7 +4531,7 @@
       <c r="D112" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E112" s="5" t="s">
+      <c r="E112" s="1" t="s">
         <v>215</v>
       </c>
       <c r="F112" s="1" t="s">
@@ -4532,7 +4540,7 @@
       <c r="G112" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K112" s="3" t="str">
+      <c r="K112" s="6" t="str">
         <f t="shared" si="5"/>
         <v>%LINE%=120,940,1820,0,,,</v>
       </c>
@@ -4547,7 +4555,7 @@
       <c r="D113" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E113" s="5" t="s">
+      <c r="E113" s="1" t="s">
         <v>216</v>
       </c>
       <c r="F113" s="1" t="s">
@@ -4556,7 +4564,7 @@
       <c r="G113" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K113" s="3" t="str">
+      <c r="K113" s="6" t="str">
         <f t="shared" si="5"/>
         <v>%LINE%=120,1003,1820,0,,,</v>
       </c>
@@ -4571,7 +4579,7 @@
       <c r="D114" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E114" s="5" t="s">
+      <c r="E114" s="1" t="s">
         <v>217</v>
       </c>
       <c r="F114" s="1" t="s">
@@ -4580,7 +4588,7 @@
       <c r="G114" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K114" s="3" t="str">
+      <c r="K114" s="6" t="str">
         <f t="shared" si="5"/>
         <v>%LINE%=120,1066,1820,0,,,</v>
       </c>
@@ -4595,7 +4603,7 @@
       <c r="D115" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E115" s="5" t="s">
+      <c r="E115" s="1" t="s">
         <v>218</v>
       </c>
       <c r="F115" s="1" t="s">
@@ -4604,7 +4612,7 @@
       <c r="G115" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K115" s="3" t="str">
+      <c r="K115" s="6" t="str">
         <f t="shared" si="5"/>
         <v>%LINE%=120,1129,1820,0,,,</v>
       </c>
@@ -4619,7 +4627,7 @@
       <c r="D116" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="E116" s="5" t="s">
+      <c r="E116" s="1" t="s">
         <v>219</v>
       </c>
       <c r="F116" s="1" t="s">
@@ -4628,7 +4636,7 @@
       <c r="G116" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K116" s="3" t="str">
+      <c r="K116" s="6" t="str">
         <f t="shared" si="5"/>
         <v>%LINE%=120,1192,1820,0,,,</v>
       </c>
@@ -4643,7 +4651,7 @@
       <c r="D117" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E117" s="5" t="s">
+      <c r="E117" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F117" s="1" t="s">
@@ -4652,7 +4660,7 @@
       <c r="G117" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="K117" s="3" t="str">
+      <c r="K117" s="6" t="str">
         <f t="shared" si="5"/>
         <v>%LINE%=875,570,0,685,,,</v>
       </c>
@@ -4667,7 +4675,7 @@
       <c r="D118" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E118" s="5" t="s">
+      <c r="E118" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F118" s="1" t="s">
@@ -4676,7 +4684,7 @@
       <c r="G118" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="K118" s="3" t="str">
+      <c r="K118" s="6" t="str">
         <f t="shared" si="5"/>
         <v>%LINE%=1085,570,0,685,,,</v>
       </c>
@@ -4691,7 +4699,7 @@
       <c r="D119" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E119" s="5" t="s">
+      <c r="E119" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F119" s="1" t="s">
@@ -4700,7 +4708,7 @@
       <c r="G119" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="K119" s="3" t="str">
+      <c r="K119" s="6" t="str">
         <f t="shared" si="5"/>
         <v>%LINE%=1195,570,0,685,,,</v>
       </c>
@@ -4715,7 +4723,7 @@
       <c r="D120" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E120" s="5" t="s">
+      <c r="E120" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F120" s="1" t="s">
@@ -4724,7 +4732,7 @@
       <c r="G120" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="K120" s="3" t="str">
+      <c r="K120" s="6" t="str">
         <f t="shared" si="5"/>
         <v>%LINE%=1445,570,0,773,,,</v>
       </c>
@@ -4739,7 +4747,7 @@
       <c r="D121" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E121" s="5" t="s">
+      <c r="E121" s="1" t="s">
         <v>236</v>
       </c>
       <c r="F121" s="1" t="s">
@@ -4748,7 +4756,7 @@
       <c r="G121" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="K121" s="3" t="str">
+      <c r="K121" s="6" t="str">
         <f t="shared" si="5"/>
         <v>%LINE%=1695,570,0,685,,,</v>
       </c>
@@ -4776,7 +4784,7 @@
         <v>121</v>
       </c>
       <c r="J122" s="4"/>
-      <c r="K122" s="3" t="str">
+      <c r="K122" s="6" t="str">
         <f t="shared" si="5"/>
         <v>摘要：=120,1300,100,40,F,,</v>
       </c>
@@ -4800,7 +4808,7 @@
       <c r="G123" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="K123" s="3" t="str">
+      <c r="K123" s="6" t="str">
         <f t="shared" si="5"/>
         <v>%LINE%=120,1340,740,0,,,</v>
       </c>
@@ -4815,7 +4823,7 @@
       <c r="D124" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E124" s="5" t="s">
+      <c r="E124" s="1" t="s">
         <v>220</v>
       </c>
       <c r="F124" s="1" t="s">
@@ -4824,7 +4832,7 @@
       <c r="G124" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="K124" s="3" t="str">
+      <c r="K124" s="6" t="str">
         <f t="shared" si="5"/>
         <v>%FRAME%=1195,1255,250,88,,,</v>
       </c>
@@ -4839,7 +4847,7 @@
       <c r="D125" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E125" s="5" t="s">
+      <c r="E125" s="1" t="s">
         <v>220</v>
       </c>
       <c r="F125" s="1" t="s">
@@ -4851,7 +4859,7 @@
       <c r="H125" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="K125" s="3" t="str">
+      <c r="K125" s="6" t="str">
         <f t="shared" si="5"/>
         <v>合    計=1195,1255,250,88,C,,</v>
       </c>
@@ -4866,7 +4874,7 @@
       <c r="D126" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E126" s="5" t="s">
+      <c r="E126" s="1" t="s">
         <v>220</v>
       </c>
       <c r="F126" s="1" t="s">
@@ -4879,7 +4887,7 @@
         <v>202</v>
       </c>
       <c r="J126" s="4"/>
-      <c r="K126" s="3" t="str">
+      <c r="K126" s="6" t="str">
         <f t="shared" si="5"/>
         <v>%LINE%=1195,1255,0,88,6,,</v>
       </c>
@@ -4894,7 +4902,7 @@
       <c r="D127" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="E127" s="5" t="s">
+      <c r="E127" s="1" t="s">
         <v>220</v>
       </c>
       <c r="F127" s="1" t="s">
@@ -4906,7 +4914,7 @@
       <c r="H127" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="K127" s="3" t="str">
+      <c r="K127" s="6" t="str">
         <f t="shared" si="5"/>
         <v>%LINE%=1695,1255,0,88,6,,</v>
       </c>
@@ -4921,7 +4929,7 @@
       <c r="D128" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E128" s="5" t="s">
+      <c r="E128" s="1" t="s">
         <v>237</v>
       </c>
       <c r="F128" s="1" t="s">
@@ -4933,7 +4941,7 @@
       <c r="H128" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="K128" s="3" t="str">
+      <c r="K128" s="6" t="str">
         <f t="shared" si="5"/>
         <v>%LINE%=1195,1343,500,0,6,,</v>
       </c>
@@ -4957,7 +4965,7 @@
       <c r="G129" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="K129" s="3" t="str">
+      <c r="K129" s="6" t="str">
         <f t="shared" si="5"/>
         <v>&lt;R70黒&gt;=1800,1360,140,55,,,</v>
       </c>
@@ -4985,7 +4993,7 @@
       <c r="H130" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="K130" s="3" t="str">
+      <c r="K130" s="6" t="str">
         <f t="shared" si="5"/>
         <v>古紙配合率70%再生紙を使用しています。=1590,1415,350,25,FR,,</v>
       </c>
@@ -5010,12 +5018,12 @@
         <v>9</v>
       </c>
       <c r="J131" s="4"/>
-      <c r="K131" s="3" t="str">
+      <c r="K131" s="6" t="str">
         <f t="shared" si="5"/>
         <v>%FRAME%=875,1265,300,150,,,</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:12" ht="19.5" x14ac:dyDescent="0.4">
       <c r="B132" s="1" t="s">
         <v>198</v>
       </c>
@@ -5035,7 +5043,7 @@
         <v>9</v>
       </c>
       <c r="J132" s="4"/>
-      <c r="K132" s="3" t="str">
+      <c r="K132" s="6" t="str">
         <f t="shared" si="5"/>
         <v>%LINE%=1025,1265,0,150,,,</v>
       </c>
@@ -7051,1357 +7059,1381 @@
       </c>
       <c r="L209" s="3"/>
     </row>
-    <row r="211" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A211" s="1" t="s">
+    <row r="211" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A211" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B211" s="1" t="s">
+      <c r="B211" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="K211" s="1" t="str">
+      <c r="K211" s="5" t="str">
         <f>A211 &amp; B211</f>
         <v>;オーバーレイ用</v>
       </c>
     </row>
-    <row r="212" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B212" s="1" t="s">
+    <row r="212" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B212" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C212" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D212" s="1" t="s">
+      <c r="C212" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D212" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E212" s="1" t="s">
+      <c r="E212" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F212" s="1" t="s">
+      <c r="F212" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="G212" s="1" t="s">
+      <c r="G212" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H212" s="1" t="s">
+      <c r="H212" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="J212" s="4" t="s">
+      <c r="J212" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K212" s="3" t="str">
+      <c r="K212" s="6" t="str">
         <f t="shared" ref="K212:K258" si="9">A212 &amp; B212 &amp; C212 &amp; D212 &amp; "," &amp; E212 &amp; "," &amp; F212 &amp; "," &amp; G212 &amp; "," &amp; H212 &amp; "," &amp; I212 &amp; "," &amp; J212</f>
         <v>お客様コードNo=120,1560,240,40,FR,,#FF0000</v>
       </c>
     </row>
-    <row r="213" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B213" s="1" t="s">
+    <row r="213" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B213" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C213" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D213" s="1" t="s">
+      <c r="C213" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D213" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="E213" s="1" t="s">
+      <c r="E213" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F213" s="1" t="s">
+      <c r="F213" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G213" s="1" t="s">
+      <c r="G213" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H213" s="1" t="s">
+      <c r="H213" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="J213" s="4" t="s">
+      <c r="J213" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K213" s="3" t="str">
+      <c r="K213" s="6" t="str">
         <f t="shared" si="9"/>
         <v>受注顧客No=610,1560,205,40,FR,,#FF0000</v>
       </c>
     </row>
-    <row r="214" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B214" s="1" t="s">
+    <row r="214" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B214" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C214" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D214" s="1" t="s">
+      <c r="C214" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D214" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="E214" s="1">
+      <c r="E214" s="2">
         <v>1525</v>
       </c>
-      <c r="F214" s="1" t="s">
+      <c r="F214" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G214" s="1" t="s">
+      <c r="G214" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H214" s="1" t="s">
+      <c r="H214" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="J214" s="4" t="s">
+      <c r="J214" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K214" s="3" t="str">
+      <c r="K214" s="6" t="str">
         <f t="shared" si="9"/>
         <v>納    品    書=1125,1525,450,75,F,,#FF0000</v>
       </c>
     </row>
-    <row r="215" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B215" s="1" t="s">
+    <row r="215" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B215" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C215" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D215" s="1" t="s">
+      <c r="C215" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D215" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E215" s="1" t="s">
+      <c r="E215" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="F215" s="1" t="s">
+      <c r="F215" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G215" s="1" t="s">
+      <c r="G215" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H215" s="1" t="s">
+      <c r="H215" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J215" s="4" t="s">
+      <c r="J215" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K215" s="3" t="str">
+      <c r="K215" s="6" t="str">
         <f t="shared" si="9"/>
         <v>No=1715,1560,80,40,F,,#FF0000</v>
       </c>
     </row>
-    <row r="216" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B216" s="1" t="s">
+    <row r="216" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B216" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C216" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D216" s="1" t="s">
+      <c r="C216" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D216" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="E216" s="1" t="s">
+      <c r="E216" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F216" s="1" t="s">
+      <c r="F216" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G216" s="1" t="s">
+      <c r="G216" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H216" s="1" t="s">
+      <c r="H216" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J216" s="4" t="s">
+      <c r="J216" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K216" s="3" t="str">
+      <c r="K216" s="6" t="str">
         <f t="shared" si="9"/>
         <v>年=1220,1635,50,40,F,,#FF0000</v>
       </c>
     </row>
-    <row r="217" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B217" s="1" t="s">
+    <row r="217" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B217" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C217" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D217" s="1" t="s">
+      <c r="C217" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D217" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E217" s="1" t="s">
+      <c r="E217" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F217" s="1" t="s">
+      <c r="F217" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G217" s="1" t="s">
+      <c r="G217" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H217" s="1" t="s">
+      <c r="H217" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J217" s="4" t="s">
+      <c r="J217" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K217" s="3" t="str">
+      <c r="K217" s="6" t="str">
         <f t="shared" si="9"/>
         <v>月=1330,1635,50,40,F,,#FF0000</v>
       </c>
     </row>
-    <row r="218" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B218" s="1" t="s">
+    <row r="218" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B218" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C218" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D218" s="1" t="s">
+      <c r="C218" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D218" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="E218" s="1" t="s">
+      <c r="E218" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="F218" s="1" t="s">
+      <c r="F218" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G218" s="1" t="s">
+      <c r="G218" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="J218" s="4" t="s">
+      <c r="J218" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K218" s="3" t="str">
+      <c r="K218" s="6" t="str">
         <f t="shared" si="9"/>
         <v>日=1440,1635,50,40,,,#FF0000</v>
       </c>
     </row>
-    <row r="219" spans="1:12" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="B219" s="1" t="s">
+    <row r="219" spans="1:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="B219" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="C219" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D219" s="1" t="s">
+      <c r="C219" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D219" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="E219" s="1">
+      <c r="E219" s="2">
         <v>1700</v>
       </c>
-      <c r="F219" s="1" t="s">
+      <c r="F219" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="G219" s="1" t="s">
+      <c r="G219" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="K219" s="3" t="str">
+      <c r="K219" s="6" t="str">
         <f t="shared" si="9"/>
         <v>&lt;MICロゴ赤&gt;=1395,1700,375,133,,,</v>
       </c>
-      <c r="L219" s="3"/>
-    </row>
-    <row r="220" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B220" s="1" t="s">
+      <c r="L219" s="8"/>
+    </row>
+    <row r="220" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B220" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C220" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D220" s="1" t="s">
+      <c r="C220" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D220" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E220" s="1">
+      <c r="E220" s="2">
         <v>1833</v>
       </c>
-      <c r="F220" s="1" t="s">
+      <c r="F220" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G220" s="1" t="s">
+      <c r="G220" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H220" s="1" t="s">
+      <c r="H220" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J220" s="4" t="s">
+      <c r="J220" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K220" s="3" t="str">
+      <c r="K220" s="6" t="str">
         <f t="shared" si="9"/>
         <v>株式会社ミック=1425,1833,420,40,F,,#FF0000</v>
       </c>
     </row>
-    <row r="221" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B221" s="1" t="s">
+    <row r="221" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B221" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C221" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D221" s="1" t="s">
+      <c r="C221" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D221" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E221" s="1">
+      <c r="E221" s="2">
         <v>1873</v>
       </c>
-      <c r="F221" s="1" t="s">
+      <c r="F221" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="G221" s="1" t="s">
+      <c r="G221" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H221" s="1" t="s">
+      <c r="H221" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="J221" s="4" t="s">
+      <c r="J221" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K221" s="3" t="str">
+      <c r="K221" s="6" t="str">
         <f t="shared" si="9"/>
         <v>〒277-0871=1425,1873,120,30,FR,,#FF0000</v>
       </c>
     </row>
-    <row r="222" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B222" s="1" t="s">
+    <row r="222" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B222" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C222" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D222" s="1" t="s">
+      <c r="C222" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D222" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E222" s="1">
+      <c r="E222" s="2">
         <v>1873</v>
       </c>
-      <c r="F222" s="1" t="s">
+      <c r="F222" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G222" s="1" t="s">
+      <c r="G222" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H222" s="1" t="s">
+      <c r="H222" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J222" s="4" t="s">
+      <c r="J222" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K222" s="3" t="str">
+      <c r="K222" s="6" t="str">
         <f t="shared" si="9"/>
         <v>千葉県柏市若紫226番地44 中央141街区1=1545,1873,395,30,F,,#FF0000</v>
       </c>
     </row>
-    <row r="223" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B223" s="1" t="s">
+    <row r="223" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B223" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="C223" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D223" s="1" t="s">
+      <c r="C223" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D223" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="E223" s="1">
+      <c r="E223" s="2">
         <v>1903</v>
       </c>
-      <c r="F223" s="1" t="s">
+      <c r="F223" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G223" s="1" t="s">
+      <c r="G223" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="H223" s="1" t="s">
+      <c r="H223" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="J223" s="4" t="s">
+      <c r="J223" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K223" s="3" t="str">
+      <c r="K223" s="6" t="str">
         <f t="shared" si="9"/>
         <v>KOIL TERARCE 5F=1545,1903,395,30,FR,,#FF0000</v>
       </c>
     </row>
-    <row r="224" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B224" s="1" t="s">
+    <row r="224" spans="1:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B224" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C224" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D224" s="1" t="s">
+      <c r="C224" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D224" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="E224" s="1">
+      <c r="E224" s="2">
         <v>1975</v>
       </c>
-      <c r="F224" s="1" t="s">
+      <c r="F224" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="G224" s="1" t="s">
+      <c r="G224" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H224" s="1" t="s">
+      <c r="H224" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="J224" s="4" t="s">
+      <c r="J224" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K224" s="3" t="str">
+      <c r="K224" s="6" t="str">
         <f t="shared" si="9"/>
         <v>担当：=1295,1975,105,40,F,,#FF0000</v>
       </c>
     </row>
-    <row r="225" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B225" s="1" t="s">
+    <row r="225" spans="2:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B225" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C225" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D225" s="1" t="s">
+      <c r="C225" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D225" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="E225" s="1">
+      <c r="E225" s="2">
         <v>2015</v>
       </c>
-      <c r="F225" s="1" t="s">
+      <c r="F225" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G225" s="1" t="s">
+      <c r="G225" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H225" s="1" t="s">
+      <c r="H225" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="J225" s="4" t="s">
+      <c r="J225" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K225" s="3" t="str">
+      <c r="K225" s="6" t="str">
         <f t="shared" si="9"/>
         <v>下記の通り納品致しましたのでご査収ください。=1345,2015,595,40,FR,,#FF0000</v>
       </c>
     </row>
-    <row r="226" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B226" s="1" t="s">
+    <row r="226" spans="2:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B226" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="C226" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D226" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E226" s="5" t="s">
+      <c r="E226" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F226" s="1" t="s">
+      <c r="F226" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="G226" s="1" t="s">
+      <c r="G226" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H226" s="1" t="s">
+      <c r="H226" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J226" s="4" t="s">
+      <c r="J226" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K226" s="3" t="str">
+      <c r="K226" s="6" t="str">
         <f t="shared" si="9"/>
         <v>品   番  ・  品   名=120,2060,755,55,C,,#FF0000</v>
       </c>
     </row>
-    <row r="227" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B227" s="1" t="s">
+    <row r="227" spans="2:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B227" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="C227" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D227" s="1" t="s">
+      <c r="C227" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D227" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E227" s="5" t="s">
+      <c r="E227" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F227" s="1" t="s">
+      <c r="F227" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="G227" s="1" t="s">
+      <c r="G227" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H227" s="1" t="s">
+      <c r="H227" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J227" s="4" t="s">
+      <c r="J227" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K227" s="3" t="str">
+      <c r="K227" s="6" t="str">
         <f t="shared" si="9"/>
         <v>数   量=875,2060,210,55,C,,#FF0000</v>
       </c>
     </row>
-    <row r="228" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B228" s="1" t="s">
+    <row r="228" spans="2:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B228" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C228" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D228" s="1" t="s">
+      <c r="C228" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D228" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E228" s="5" t="s">
+      <c r="E228" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F228" s="1" t="s">
+      <c r="F228" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="G228" s="1" t="s">
+      <c r="G228" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H228" s="1" t="s">
+      <c r="H228" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J228" s="4" t="s">
+      <c r="J228" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K228" s="3" t="str">
+      <c r="K228" s="6" t="str">
         <f t="shared" si="9"/>
         <v>単 位=1085,2060,110,55,C,,#FF0000</v>
       </c>
     </row>
-    <row r="229" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B229" s="1" t="s">
+    <row r="229" spans="2:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B229" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C229" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D229" s="1" t="s">
+      <c r="C229" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D229" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E229" s="5" t="s">
+      <c r="E229" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F229" s="1" t="s">
+      <c r="F229" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G229" s="1" t="s">
+      <c r="G229" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H229" s="1" t="s">
+      <c r="H229" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J229" s="4" t="s">
+      <c r="J229" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K229" s="3" t="str">
+      <c r="K229" s="6" t="str">
         <f t="shared" si="9"/>
         <v>単    価=1195,2060,250,55,C,,#FF0000</v>
       </c>
     </row>
-    <row r="230" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B230" s="1" t="s">
+    <row r="230" spans="2:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B230" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C230" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D230" s="1" t="s">
+      <c r="C230" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D230" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E230" s="5" t="s">
+      <c r="E230" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F230" s="1" t="s">
+      <c r="F230" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G230" s="1" t="s">
+      <c r="G230" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H230" s="1" t="s">
+      <c r="H230" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J230" s="4" t="s">
+      <c r="J230" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K230" s="3" t="str">
+      <c r="K230" s="6" t="str">
         <f t="shared" si="9"/>
         <v>金    額=1445,2060,250,55,C,,#FF0000</v>
       </c>
     </row>
-    <row r="231" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B231" s="1" t="s">
+    <row r="231" spans="2:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B231" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C231" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D231" s="1" t="s">
+      <c r="C231" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D231" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E231" s="5" t="s">
+      <c r="E231" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F231" s="1" t="s">
+      <c r="F231" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="G231" s="1" t="s">
+      <c r="G231" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="H231" s="1" t="s">
+      <c r="H231" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J231" s="4" t="s">
+      <c r="J231" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K231" s="3" t="str">
+      <c r="K231" s="6" t="str">
         <f t="shared" si="9"/>
         <v>備    考=1695,2060,245,55,C,,#FF0000</v>
       </c>
     </row>
-    <row r="232" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B232" s="1" t="s">
+    <row r="232" spans="2:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B232" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C232" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D232" s="1" t="s">
+      <c r="C232" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D232" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E232" s="5" t="s">
+      <c r="E232" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F232" s="1" t="s">
+      <c r="F232" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G232" s="1" t="s">
+      <c r="G232" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="H232" s="1" t="s">
+      <c r="H232" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="J232" s="4" t="s">
+      <c r="J232" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K232" s="3" t="str">
+      <c r="K232" s="6" t="str">
         <f t="shared" si="9"/>
         <v>%FRAME%=120,2060,1820,685,6,,#FF0000</v>
       </c>
     </row>
-    <row r="233" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B233" s="1" t="s">
+    <row r="233" spans="2:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B233" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C233" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D233" s="1" t="s">
+      <c r="C233" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D233" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E233" s="5" t="s">
+      <c r="E233" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="F233" s="1" t="s">
+      <c r="F233" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G233" s="1" t="s">
+      <c r="G233" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J233" s="4" t="s">
+      <c r="J233" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K233" s="3" t="str">
+      <c r="K233" s="6" t="str">
         <f t="shared" si="9"/>
         <v>%LINE%=120,2115,1820,0,,,#FF0000</v>
       </c>
     </row>
-    <row r="234" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B234" s="1" t="s">
+    <row r="234" spans="2:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B234" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C234" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D234" s="1" t="s">
+      <c r="C234" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D234" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E234" s="5">
+      <c r="E234" s="2">
         <v>2178</v>
       </c>
-      <c r="F234" s="1" t="s">
+      <c r="F234" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G234" s="1" t="s">
+      <c r="G234" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J234" s="4" t="s">
+      <c r="J234" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K234" s="3" t="str">
+      <c r="K234" s="6" t="str">
         <f t="shared" si="9"/>
         <v>%LINE%=120,2178,1820,0,,,#FF0000</v>
       </c>
     </row>
-    <row r="235" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B235" s="1" t="s">
+    <row r="235" spans="2:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B235" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C235" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D235" s="1" t="s">
+      <c r="C235" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D235" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E235" s="5">
+      <c r="E235" s="2">
         <v>2241</v>
       </c>
-      <c r="F235" s="1" t="s">
+      <c r="F235" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G235" s="1" t="s">
+      <c r="G235" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J235" s="4" t="s">
+      <c r="J235" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K235" s="3" t="str">
+      <c r="K235" s="6" t="str">
         <f t="shared" si="9"/>
         <v>%LINE%=120,2241,1820,0,,,#FF0000</v>
       </c>
     </row>
-    <row r="236" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B236" s="1" t="s">
+    <row r="236" spans="2:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B236" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C236" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D236" s="1" t="s">
+      <c r="C236" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D236" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E236" s="5">
+      <c r="E236" s="2">
         <v>2304</v>
       </c>
-      <c r="F236" s="1" t="s">
+      <c r="F236" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G236" s="1" t="s">
+      <c r="G236" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J236" s="4" t="s">
+      <c r="J236" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K236" s="3" t="str">
+      <c r="K236" s="6" t="str">
         <f t="shared" si="9"/>
         <v>%LINE%=120,2304,1820,0,,,#FF0000</v>
       </c>
     </row>
-    <row r="237" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B237" s="1" t="s">
+    <row r="237" spans="2:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B237" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C237" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D237" s="1" t="s">
+      <c r="C237" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D237" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E237" s="5">
+      <c r="E237" s="2">
         <v>2367</v>
       </c>
-      <c r="F237" s="1" t="s">
+      <c r="F237" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G237" s="1" t="s">
+      <c r="G237" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J237" s="4" t="s">
+      <c r="J237" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K237" s="3" t="str">
+      <c r="K237" s="6" t="str">
         <f t="shared" si="9"/>
         <v>%LINE%=120,2367,1820,0,,,#FF0000</v>
       </c>
     </row>
-    <row r="238" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B238" s="1" t="s">
+    <row r="238" spans="2:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B238" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C238" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D238" s="1" t="s">
+      <c r="C238" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D238" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E238" s="5">
+      <c r="E238" s="2">
         <v>2430</v>
       </c>
-      <c r="F238" s="1" t="s">
+      <c r="F238" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G238" s="1" t="s">
+      <c r="G238" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J238" s="4" t="s">
+      <c r="J238" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K238" s="3" t="str">
+      <c r="K238" s="6" t="str">
         <f t="shared" si="9"/>
         <v>%LINE%=120,2430,1820,0,,,#FF0000</v>
       </c>
     </row>
-    <row r="239" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B239" s="1" t="s">
+    <row r="239" spans="2:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B239" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C239" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D239" s="1" t="s">
+      <c r="C239" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D239" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E239" s="5">
+      <c r="E239" s="2">
         <v>2493</v>
       </c>
-      <c r="F239" s="1" t="s">
+      <c r="F239" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G239" s="1" t="s">
+      <c r="G239" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J239" s="4" t="s">
+      <c r="J239" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K239" s="3" t="str">
+      <c r="K239" s="6" t="str">
         <f t="shared" si="9"/>
         <v>%LINE%=120,2493,1820,0,,,#FF0000</v>
       </c>
     </row>
-    <row r="240" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B240" s="1" t="s">
+    <row r="240" spans="2:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B240" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C240" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D240" s="1" t="s">
+      <c r="C240" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D240" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E240" s="5">
+      <c r="E240" s="2">
         <v>2556</v>
       </c>
-      <c r="F240" s="1" t="s">
+      <c r="F240" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G240" s="1" t="s">
+      <c r="G240" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J240" s="4" t="s">
+      <c r="J240" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K240" s="3" t="str">
+      <c r="K240" s="6" t="str">
         <f t="shared" si="9"/>
         <v>%LINE%=120,2556,1820,0,,,#FF0000</v>
       </c>
     </row>
-    <row r="241" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B241" s="1" t="s">
+    <row r="241" spans="2:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B241" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C241" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D241" s="1" t="s">
+      <c r="C241" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D241" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E241" s="5">
+      <c r="E241" s="2">
         <v>2619</v>
       </c>
-      <c r="F241" s="1" t="s">
+      <c r="F241" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G241" s="1" t="s">
+      <c r="G241" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J241" s="4" t="s">
+      <c r="J241" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K241" s="3" t="str">
+      <c r="K241" s="6" t="str">
         <f t="shared" si="9"/>
         <v>%LINE%=120,2619,1820,0,,,#FF0000</v>
       </c>
     </row>
-    <row r="242" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B242" s="1" t="s">
+    <row r="242" spans="2:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B242" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C242" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D242" s="1" t="s">
+      <c r="C242" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D242" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E242" s="5">
+      <c r="E242" s="2">
         <v>2682</v>
       </c>
-      <c r="F242" s="1" t="s">
+      <c r="F242" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="G242" s="1" t="s">
+      <c r="G242" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J242" s="4" t="s">
+      <c r="J242" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K242" s="3" t="str">
+      <c r="K242" s="6" t="str">
         <f t="shared" si="9"/>
         <v>%LINE%=120,2682,1820,0,,,#FF0000</v>
       </c>
     </row>
-    <row r="243" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B243" s="1" t="s">
+    <row r="243" spans="2:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B243" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C243" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D243" s="1" t="s">
+      <c r="C243" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D243" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E243" s="5" t="s">
+      <c r="E243" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F243" s="1" t="s">
+      <c r="F243" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G243" s="1" t="s">
+      <c r="G243" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J243" s="4" t="s">
+      <c r="J243" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K243" s="3" t="str">
+      <c r="K243" s="6" t="str">
         <f t="shared" si="9"/>
         <v>%LINE%=875,2060,0,685,,,#FF0000</v>
       </c>
     </row>
-    <row r="244" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B244" s="1" t="s">
+    <row r="244" spans="2:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B244" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C244" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D244" s="1" t="s">
+      <c r="C244" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D244" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="E244" s="5" t="s">
+      <c r="E244" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F244" s="1" t="s">
+      <c r="F244" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G244" s="1" t="s">
+      <c r="G244" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J244" s="4" t="s">
+      <c r="J244" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K244" s="3" t="str">
+      <c r="K244" s="6" t="str">
         <f t="shared" si="9"/>
         <v>%LINE%=1085,2060,0,685,,,#FF0000</v>
       </c>
     </row>
-    <row r="245" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B245" s="1" t="s">
+    <row r="245" spans="2:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B245" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C245" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D245" s="1" t="s">
+      <c r="C245" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D245" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E245" s="5" t="s">
+      <c r="E245" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F245" s="1" t="s">
+      <c r="F245" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G245" s="1" t="s">
+      <c r="G245" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J245" s="4" t="s">
+      <c r="J245" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K245" s="3" t="str">
+      <c r="K245" s="6" t="str">
         <f t="shared" si="9"/>
         <v>%LINE%=1195,2060,0,685,,,#FF0000</v>
       </c>
     </row>
-    <row r="246" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B246" s="1" t="s">
+    <row r="246" spans="2:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B246" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C246" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D246" s="1" t="s">
+      <c r="C246" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D246" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="E246" s="5" t="s">
+      <c r="E246" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F246" s="1" t="s">
+      <c r="F246" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G246" s="1" t="s">
+      <c r="G246" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="J246" s="4" t="s">
+      <c r="J246" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K246" s="3" t="str">
+      <c r="K246" s="6" t="str">
         <f t="shared" si="9"/>
         <v>%LINE%=1445,2060,0,773,,,#FF0000</v>
       </c>
     </row>
-    <row r="247" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B247" s="1" t="s">
+    <row r="247" spans="2:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B247" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C247" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D247" s="1" t="s">
+      <c r="C247" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D247" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E247" s="5" t="s">
+      <c r="E247" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="F247" s="1" t="s">
+      <c r="F247" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G247" s="1" t="s">
+      <c r="G247" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="J247" s="4" t="s">
+      <c r="J247" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K247" s="3" t="str">
+      <c r="K247" s="6" t="str">
         <f t="shared" si="9"/>
         <v>%LINE%=1695,2060,0,685,,,#FF0000</v>
       </c>
     </row>
-    <row r="248" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B248" s="1" t="s">
+    <row r="248" spans="2:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B248" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C248" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D248" s="1" t="s">
+      <c r="C248" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D248" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E248" s="1">
+      <c r="E248" s="2">
         <v>2790</v>
       </c>
-      <c r="F248" s="1" t="s">
+      <c r="F248" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G248" s="1" t="s">
+      <c r="G248" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H248" s="1" t="s">
+      <c r="H248" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="J248" s="4" t="s">
+      <c r="J248" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K248" s="3" t="str">
+      <c r="K248" s="6" t="str">
         <f t="shared" si="9"/>
         <v>摘要：=120,2790,100,40,F,,#FF0000</v>
       </c>
     </row>
-    <row r="249" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B249" s="1" t="s">
+    <row r="249" spans="2:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B249" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C249" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D249" s="1" t="s">
+      <c r="C249" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D249" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E249" s="1">
+      <c r="E249" s="2">
         <v>2830</v>
       </c>
-      <c r="F249" s="1" t="s">
+      <c r="F249" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="G249" s="1" t="s">
+      <c r="G249" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J249" s="4" t="s">
+      <c r="J249" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K249" s="3" t="str">
+      <c r="K249" s="6" t="str">
         <f t="shared" si="9"/>
         <v>%LINE%=120,2830,740,0,,,#FF0000</v>
       </c>
     </row>
-    <row r="250" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B250" s="1" t="s">
+    <row r="250" spans="2:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B250" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C250" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D250" s="1" t="s">
+      <c r="C250" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D250" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E250" s="5" t="s">
+      <c r="E250" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F250" s="1" t="s">
+      <c r="F250" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G250" s="1" t="s">
+      <c r="G250" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H250" s="1" t="s">
+      <c r="H250" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="J250" s="4" t="s">
+      <c r="J250" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K250" s="3" t="str">
+      <c r="K250" s="6" t="str">
         <f t="shared" si="9"/>
         <v>合    計=1195,2745,250,88,C,,#FF0000</v>
       </c>
     </row>
-    <row r="251" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B251" s="1" t="s">
+    <row r="251" spans="2:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B251" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C251" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D251" s="1" t="s">
+      <c r="C251" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D251" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E251" s="5" t="s">
+      <c r="E251" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F251" s="1" t="s">
+      <c r="F251" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G251" s="1" t="s">
+      <c r="G251" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="J251" s="4" t="s">
+      <c r="J251" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K251" s="3" t="str">
+      <c r="K251" s="6" t="str">
         <f t="shared" si="9"/>
         <v>%FRAME%=1195,2745,250,88,,,#FF0000</v>
       </c>
     </row>
-    <row r="252" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B252" s="1" t="s">
+    <row r="252" spans="2:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B252" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C252" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D252" s="1" t="s">
+      <c r="C252" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D252" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E252" s="5" t="s">
+      <c r="E252" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F252" s="1" t="s">
+      <c r="F252" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G252" s="1" t="s">
+      <c r="G252" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H252" s="1" t="s">
+      <c r="H252" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="J252" s="4" t="s">
+      <c r="J252" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K252" s="3" t="str">
+      <c r="K252" s="6" t="str">
         <f t="shared" si="9"/>
         <v>%LINE%=1195,2745,0,88,6,,#FF0000</v>
       </c>
     </row>
-    <row r="253" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B253" s="1" t="s">
+    <row r="253" spans="2:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B253" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C253" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D253" s="1" t="s">
+      <c r="C253" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D253" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="E253" s="5" t="s">
+      <c r="E253" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="F253" s="1" t="s">
+      <c r="F253" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G253" s="1" t="s">
+      <c r="G253" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="H253" s="1" t="s">
+      <c r="H253" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="J253" s="4" t="s">
+      <c r="J253" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K253" s="3" t="str">
+      <c r="K253" s="6" t="str">
         <f t="shared" si="9"/>
         <v>%LINE%=1695,2745,0,88,6,,#FF0000</v>
       </c>
     </row>
-    <row r="254" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B254" s="1" t="s">
+    <row r="254" spans="2:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B254" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C254" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D254" s="1" t="s">
+      <c r="C254" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D254" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="E254" s="5" t="s">
+      <c r="E254" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="F254" s="1" t="s">
+      <c r="F254" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="G254" s="1" t="s">
+      <c r="G254" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H254" s="1" t="s">
+      <c r="H254" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="J254" s="4" t="s">
+      <c r="J254" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K254" s="3" t="str">
+      <c r="K254" s="6" t="str">
         <f t="shared" si="9"/>
         <v>%LINE%=1195,2833,500,0,6,,#FF0000</v>
       </c>
     </row>
-    <row r="255" spans="2:12" ht="15.75" x14ac:dyDescent="0.4">
-      <c r="B255" s="1" t="s">
+    <row r="255" spans="2:12" s="2" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="B255" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C255" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D255" s="1" t="s">
+      <c r="C255" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D255" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="E255" s="1">
+      <c r="E255" s="2">
         <v>2850</v>
       </c>
-      <c r="F255" s="1" t="s">
+      <c r="F255" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G255" s="1" t="s">
+      <c r="G255" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="K255" s="3" t="str">
+      <c r="K255" s="6" t="str">
         <f t="shared" si="9"/>
         <v>&lt;R70赤&gt;=1800,2850,140,55,,,</v>
       </c>
-      <c r="L255" s="3"/>
-    </row>
-    <row r="256" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B256" s="1" t="s">
+      <c r="L255" s="8"/>
+    </row>
+    <row r="256" spans="2:12" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B256" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C256" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D256" s="1" t="s">
+      <c r="C256" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D256" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E256" s="1">
+      <c r="E256" s="2">
         <v>2905</v>
       </c>
-      <c r="F256" s="1" t="s">
+      <c r="F256" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G256" s="1" t="s">
+      <c r="G256" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H256" s="1" t="s">
+      <c r="H256" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="J256" s="4" t="s">
+      <c r="J256" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K256" s="3" t="str">
+      <c r="K256" s="6" t="str">
         <f t="shared" si="9"/>
         <v>古紙配合率70%再生紙を使用しています。=1590,2905,350,25,FR,,#FF0000</v>
       </c>
     </row>
-    <row r="257" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B257" s="1" t="s">
+    <row r="257" spans="2:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B257" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C257" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D257" s="1" t="s">
+      <c r="C257" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D257" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="E257" s="1">
+      <c r="E257" s="2">
         <v>2755</v>
       </c>
-      <c r="F257" s="1" t="s">
+      <c r="F257" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G257" s="1" t="s">
+      <c r="G257" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J257" s="4" t="s">
+      <c r="J257" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K257" s="3" t="str">
+      <c r="K257" s="6" t="str">
         <f t="shared" si="9"/>
         <v>%FRAME%=875,2755,300,150,,,#FF0000</v>
       </c>
     </row>
-    <row r="258" spans="2:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B258" s="1" t="s">
+    <row r="258" spans="2:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B258" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C258" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D258" s="1" t="s">
+      <c r="C258" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D258" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="E258" s="1">
+      <c r="E258" s="2">
         <v>2755</v>
       </c>
-      <c r="F258" s="1" t="s">
+      <c r="F258" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G258" s="1" t="s">
+      <c r="G258" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="J258" s="4" t="s">
+      <c r="J258" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="K258" s="3" t="str">
+      <c r="K258" s="6" t="str">
         <f t="shared" si="9"/>
         <v>%LINE%=1025,2755,0,150,,,#FF0000</v>
       </c>
+    </row>
+    <row r="259" spans="2:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K259" s="8"/>
+    </row>
+    <row r="260" spans="2:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K260" s="8"/>
+    </row>
+    <row r="261" spans="2:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K261" s="8"/>
+    </row>
+    <row r="262" spans="2:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K262" s="8"/>
+    </row>
+    <row r="263" spans="2:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K263" s="8"/>
+    </row>
+    <row r="264" spans="2:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K264" s="8"/>
+    </row>
+    <row r="265" spans="2:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K265" s="8"/>
+    </row>
+    <row r="266" spans="2:11" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="K266" s="8"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
